--- a/biology/Histoire de la zoologie et de la botanique/Carl_Friedrich_August_Meisner/Carl_Friedrich_August_Meisner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Friedrich_August_Meisner/Carl_Friedrich_August_Meisner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Friedrich August Meisner est un ornithologue suisse d’origine allemande, né en 1765 et mort en 1825.
 Originaire de Hanovre, il vient à Berne pour y enseigner l’histoire naturelle. En 1804, il fait paraître à Berne sur les oiseaux de la région : Systematisches Verzeichniss der Vögel der Schweiz. Ce travail très bref (70 pages), lui permet de s’attaquer à un projet plus ambitieux : une faune de Suisse. Elle paraît en 1815 et est cosignée par Heinrich Rudolph Schinz (1777-1861) : Die Vögel der Schweiz. Il s’agit de la première avifaune du pays.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Maurice Boubier, L’Évolution de l’ornithologie, Paris, Alcan, coll. « Nouvelle collection scientifique », 1925, ii + 308</t>
         </is>
